--- a/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,103 +452,103 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1800</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1260</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>40</v>
@@ -556,137 +556,337 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45432</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>460</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1660</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>860</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45467</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45474</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45530</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45537</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>260</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>140</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>180</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>480</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>280</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>760</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45593</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B56" t="n">
         <v>840</v>
       </c>
     </row>
@@ -701,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,81 +923,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>4530</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>720</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>3220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>580</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>540</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>2540</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,31 +460,31 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>110</v>
@@ -492,223 +492,223 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>370</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>610</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>340</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1800</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1410</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1260</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>20</v>
@@ -716,177 +716,153 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>160</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>860</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>1660</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>860</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>140</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>180</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B54" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B55" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B56" t="n">
         <v>840</v>
       </c>
     </row>
@@ -934,7 +910,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>640</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
@@ -942,7 +918,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>440</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -893,7 +894,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1039,6 +1040,887 @@
       </c>
       <c r="B19" t="n">
         <v>2540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-359.810072620913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>645.8400645940834</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>161</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-343.9854182427919</v>
+      </c>
+      <c r="D3" t="n">
+        <v>680.82845693566</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>170</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-333.9601283841666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>742.8070589525896</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>174</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-318.6749856658634</v>
+      </c>
+      <c r="D5" t="n">
+        <v>687.5062891058373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>178</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-352.3714719301074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>722.2444814216682</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>183</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-330.6496146308234</v>
+      </c>
+      <c r="D7" t="n">
+        <v>652.3106223543155</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>191</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-353.7634287715082</v>
+      </c>
+      <c r="D8" t="n">
+        <v>730.1491499144286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>196</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-321.534885388194</v>
+      </c>
+      <c r="D9" t="n">
+        <v>706.0642154769115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-281.0140441386047</v>
+      </c>
+      <c r="D10" t="n">
+        <v>712.7719157912479</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>204</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-294.8176825104684</v>
+      </c>
+      <c r="D11" t="n">
+        <v>739.7784785672939</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>209</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-322.9409993698465</v>
+      </c>
+      <c r="D12" t="n">
+        <v>732.6823035914514</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>213</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-301.4120945782757</v>
+      </c>
+      <c r="D13" t="n">
+        <v>728.1928174364883</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>217</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-263.0442206469735</v>
+      </c>
+      <c r="D14" t="n">
+        <v>760.9798970493381</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>226</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-281.350011021861</v>
+      </c>
+      <c r="D15" t="n">
+        <v>719.8597377354893</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>230</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-268.5273267578253</v>
+      </c>
+      <c r="D16" t="n">
+        <v>710.621013820412</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>235</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-285.9924399756441</v>
+      </c>
+      <c r="D17" t="n">
+        <v>788.6777926461093</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>239</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-290.6420370938</v>
+      </c>
+      <c r="D18" t="n">
+        <v>796.8602989310676</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>243</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-317.6910386993482</v>
+      </c>
+      <c r="D19" t="n">
+        <v>780.7931033295355</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>248</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-250.6482668899592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>779.1088612859695</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>252</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-266.1761866102591</v>
+      </c>
+      <c r="D21" t="n">
+        <v>798.927624930774</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>256</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-232.1623500529986</v>
+      </c>
+      <c r="D22" t="n">
+        <v>756.5052600041496</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>269</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-233.532472083977</v>
+      </c>
+      <c r="D23" t="n">
+        <v>782.7690069013039</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>287</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-251.4564423758537</v>
+      </c>
+      <c r="D24" t="n">
+        <v>842.3494371738827</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>291</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-212.8406281162591</v>
+      </c>
+      <c r="D25" t="n">
+        <v>821.6291301310275</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>295</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-231.8016702062841</v>
+      </c>
+      <c r="D26" t="n">
+        <v>843.8777962376334</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>300</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-220.2981786375785</v>
+      </c>
+      <c r="D27" t="n">
+        <v>792.4139293110925</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>304</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-226.5764976003002</v>
+      </c>
+      <c r="D28" t="n">
+        <v>820.7468136687845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>308</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-204.2876149493637</v>
+      </c>
+      <c r="D29" t="n">
+        <v>833.4721080047974</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>334</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-153.3741988184265</v>
+      </c>
+      <c r="D30" t="n">
+        <v>876.6952235747349</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>339</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-222.9291419510829</v>
+      </c>
+      <c r="D31" t="n">
+        <v>846.3227036657568</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>343</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-159.697174859825</v>
+      </c>
+      <c r="D32" t="n">
+        <v>895.2059385815541</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>352</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-170.2246999748005</v>
+      </c>
+      <c r="D33" t="n">
+        <v>822.5816820080929</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>360</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-150.5677251278682</v>
+      </c>
+      <c r="D34" t="n">
+        <v>898.729242971763</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>365</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-177.4025284065671</v>
+      </c>
+      <c r="D35" t="n">
+        <v>876.4238327926166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>369</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-137.8725666660278</v>
+      </c>
+      <c r="D36" t="n">
+        <v>905.0119463383094</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>373</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-148.6853230176696</v>
+      </c>
+      <c r="D37" t="n">
+        <v>918.231087655628</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>378</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-151.0888064892128</v>
+      </c>
+      <c r="D38" t="n">
+        <v>913.9654649350545</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>382</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-154.7618778415726</v>
+      </c>
+      <c r="D39" t="n">
+        <v>937.4679860374006</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>386</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-112.1490089208133</v>
+      </c>
+      <c r="D40" t="n">
+        <v>980.5764695270449</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>391</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-102.2031569977965</v>
+      </c>
+      <c r="D41" t="n">
+        <v>888.3715760419113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>395</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-135.3332787949707</v>
+      </c>
+      <c r="D42" t="n">
+        <v>924.6913492192172</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>399</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-135.7493431936953</v>
+      </c>
+      <c r="D43" t="n">
+        <v>954.6853816803887</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>430</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-87.76405667224924</v>
+      </c>
+      <c r="D44" t="n">
+        <v>937.5789685222209</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>434</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-80.75062175320909</v>
+      </c>
+      <c r="D45" t="n">
+        <v>927.9239801484389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>438</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-56.93394194246566</v>
+      </c>
+      <c r="D46" t="n">
+        <v>950.1587631493961</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>447</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-86.43123512672977</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1010.082449828148</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>451</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-75.31943486428588</v>
+      </c>
+      <c r="D48" t="n">
+        <v>966.4635371368332</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>456</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-34.32698890110451</v>
+      </c>
+      <c r="D49" t="n">
+        <v>981.4689957172174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>460</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-55.5704493853756</v>
+      </c>
+      <c r="D50" t="n">
+        <v>951.0253563390744</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>464</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-68.11992147884322</v>
+      </c>
+      <c r="D51" t="n">
+        <v>991.9917427706355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>469</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-24.64248984397513</v>
+      </c>
+      <c r="D52" t="n">
+        <v>999.7647493371828</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>473</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-43.34717584680649</v>
+      </c>
+      <c r="D53" t="n">
+        <v>949.4572638042836</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>477</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-43.58668698953687</v>
+      </c>
+      <c r="D54" t="n">
+        <v>993.5152087693371</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>482</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-43.47019230756953</v>
+      </c>
+      <c r="D55" t="n">
+        <v>979.4885386447816</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>486</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-26.14006226312189</v>
+      </c>
+      <c r="D56" t="n">
+        <v>997.3961479447844</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>490</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-23.74471421805152</v>
+      </c>
+      <c r="D57" t="n">
+        <v>984.908406748633</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>495</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.169782577778082</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1008.623926228689</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>499</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-42.99950280055904</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1004.827648872626</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>503</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-20.06370552595211</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1023.930364516322</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>508</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-39.30104356882455</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1015.72373861081</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5S9CHMG_po_data.xlsx
@@ -1053,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,16 +1072,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1090,12 +1080,6 @@
       <c r="B2" t="n">
         <v>152</v>
       </c>
-      <c r="C2" t="n">
-        <v>-359.810072620913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>645.8400645940834</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1104,12 +1088,6 @@
       <c r="B3" t="n">
         <v>161</v>
       </c>
-      <c r="C3" t="n">
-        <v>-343.9854182427919</v>
-      </c>
-      <c r="D3" t="n">
-        <v>680.82845693566</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1118,12 +1096,6 @@
       <c r="B4" t="n">
         <v>170</v>
       </c>
-      <c r="C4" t="n">
-        <v>-333.9601283841666</v>
-      </c>
-      <c r="D4" t="n">
-        <v>742.8070589525896</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1132,12 +1104,6 @@
       <c r="B5" t="n">
         <v>174</v>
       </c>
-      <c r="C5" t="n">
-        <v>-318.6749856658634</v>
-      </c>
-      <c r="D5" t="n">
-        <v>687.5062891058373</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1146,12 +1112,6 @@
       <c r="B6" t="n">
         <v>178</v>
       </c>
-      <c r="C6" t="n">
-        <v>-352.3714719301074</v>
-      </c>
-      <c r="D6" t="n">
-        <v>722.2444814216682</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1160,12 +1120,6 @@
       <c r="B7" t="n">
         <v>183</v>
       </c>
-      <c r="C7" t="n">
-        <v>-330.6496146308234</v>
-      </c>
-      <c r="D7" t="n">
-        <v>652.3106223543155</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1174,12 +1128,6 @@
       <c r="B8" t="n">
         <v>191</v>
       </c>
-      <c r="C8" t="n">
-        <v>-353.7634287715082</v>
-      </c>
-      <c r="D8" t="n">
-        <v>730.1491499144286</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1188,12 +1136,6 @@
       <c r="B9" t="n">
         <v>196</v>
       </c>
-      <c r="C9" t="n">
-        <v>-321.534885388194</v>
-      </c>
-      <c r="D9" t="n">
-        <v>706.0642154769115</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1202,12 +1144,6 @@
       <c r="B10" t="n">
         <v>200</v>
       </c>
-      <c r="C10" t="n">
-        <v>-281.0140441386047</v>
-      </c>
-      <c r="D10" t="n">
-        <v>712.7719157912479</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1216,12 +1152,6 @@
       <c r="B11" t="n">
         <v>204</v>
       </c>
-      <c r="C11" t="n">
-        <v>-294.8176825104684</v>
-      </c>
-      <c r="D11" t="n">
-        <v>739.7784785672939</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1230,12 +1160,6 @@
       <c r="B12" t="n">
         <v>209</v>
       </c>
-      <c r="C12" t="n">
-        <v>-322.9409993698465</v>
-      </c>
-      <c r="D12" t="n">
-        <v>732.6823035914514</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1244,12 +1168,6 @@
       <c r="B13" t="n">
         <v>213</v>
       </c>
-      <c r="C13" t="n">
-        <v>-301.4120945782757</v>
-      </c>
-      <c r="D13" t="n">
-        <v>728.1928174364883</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1258,12 +1176,6 @@
       <c r="B14" t="n">
         <v>217</v>
       </c>
-      <c r="C14" t="n">
-        <v>-263.0442206469735</v>
-      </c>
-      <c r="D14" t="n">
-        <v>760.9798970493381</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1272,12 +1184,6 @@
       <c r="B15" t="n">
         <v>226</v>
       </c>
-      <c r="C15" t="n">
-        <v>-281.350011021861</v>
-      </c>
-      <c r="D15" t="n">
-        <v>719.8597377354893</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1286,12 +1192,6 @@
       <c r="B16" t="n">
         <v>230</v>
       </c>
-      <c r="C16" t="n">
-        <v>-268.5273267578253</v>
-      </c>
-      <c r="D16" t="n">
-        <v>710.621013820412</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1300,12 +1200,6 @@
       <c r="B17" t="n">
         <v>235</v>
       </c>
-      <c r="C17" t="n">
-        <v>-285.9924399756441</v>
-      </c>
-      <c r="D17" t="n">
-        <v>788.6777926461093</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1314,12 +1208,6 @@
       <c r="B18" t="n">
         <v>239</v>
       </c>
-      <c r="C18" t="n">
-        <v>-290.6420370938</v>
-      </c>
-      <c r="D18" t="n">
-        <v>796.8602989310676</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1328,12 +1216,6 @@
       <c r="B19" t="n">
         <v>243</v>
       </c>
-      <c r="C19" t="n">
-        <v>-317.6910386993482</v>
-      </c>
-      <c r="D19" t="n">
-        <v>780.7931033295355</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1342,12 +1224,6 @@
       <c r="B20" t="n">
         <v>248</v>
       </c>
-      <c r="C20" t="n">
-        <v>-250.6482668899592</v>
-      </c>
-      <c r="D20" t="n">
-        <v>779.1088612859695</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1356,12 +1232,6 @@
       <c r="B21" t="n">
         <v>252</v>
       </c>
-      <c r="C21" t="n">
-        <v>-266.1761866102591</v>
-      </c>
-      <c r="D21" t="n">
-        <v>798.927624930774</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1370,12 +1240,6 @@
       <c r="B22" t="n">
         <v>256</v>
       </c>
-      <c r="C22" t="n">
-        <v>-232.1623500529986</v>
-      </c>
-      <c r="D22" t="n">
-        <v>756.5052600041496</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1384,12 +1248,6 @@
       <c r="B23" t="n">
         <v>269</v>
       </c>
-      <c r="C23" t="n">
-        <v>-233.532472083977</v>
-      </c>
-      <c r="D23" t="n">
-        <v>782.7690069013039</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1398,12 +1256,6 @@
       <c r="B24" t="n">
         <v>287</v>
       </c>
-      <c r="C24" t="n">
-        <v>-251.4564423758537</v>
-      </c>
-      <c r="D24" t="n">
-        <v>842.3494371738827</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1412,12 +1264,6 @@
       <c r="B25" t="n">
         <v>291</v>
       </c>
-      <c r="C25" t="n">
-        <v>-212.8406281162591</v>
-      </c>
-      <c r="D25" t="n">
-        <v>821.6291301310275</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1426,12 +1272,6 @@
       <c r="B26" t="n">
         <v>295</v>
       </c>
-      <c r="C26" t="n">
-        <v>-231.8016702062841</v>
-      </c>
-      <c r="D26" t="n">
-        <v>843.8777962376334</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1440,12 +1280,6 @@
       <c r="B27" t="n">
         <v>300</v>
       </c>
-      <c r="C27" t="n">
-        <v>-220.2981786375785</v>
-      </c>
-      <c r="D27" t="n">
-        <v>792.4139293110925</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1454,12 +1288,6 @@
       <c r="B28" t="n">
         <v>304</v>
       </c>
-      <c r="C28" t="n">
-        <v>-226.5764976003002</v>
-      </c>
-      <c r="D28" t="n">
-        <v>820.7468136687845</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1468,12 +1296,6 @@
       <c r="B29" t="n">
         <v>308</v>
       </c>
-      <c r="C29" t="n">
-        <v>-204.2876149493637</v>
-      </c>
-      <c r="D29" t="n">
-        <v>833.4721080047974</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1482,12 +1304,6 @@
       <c r="B30" t="n">
         <v>334</v>
       </c>
-      <c r="C30" t="n">
-        <v>-153.3741988184265</v>
-      </c>
-      <c r="D30" t="n">
-        <v>876.6952235747349</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1496,12 +1312,6 @@
       <c r="B31" t="n">
         <v>339</v>
       </c>
-      <c r="C31" t="n">
-        <v>-222.9291419510829</v>
-      </c>
-      <c r="D31" t="n">
-        <v>846.3227036657568</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1510,12 +1320,6 @@
       <c r="B32" t="n">
         <v>343</v>
       </c>
-      <c r="C32" t="n">
-        <v>-159.697174859825</v>
-      </c>
-      <c r="D32" t="n">
-        <v>895.2059385815541</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1524,12 +1328,6 @@
       <c r="B33" t="n">
         <v>352</v>
       </c>
-      <c r="C33" t="n">
-        <v>-170.2246999748005</v>
-      </c>
-      <c r="D33" t="n">
-        <v>822.5816820080929</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1538,12 +1336,6 @@
       <c r="B34" t="n">
         <v>360</v>
       </c>
-      <c r="C34" t="n">
-        <v>-150.5677251278682</v>
-      </c>
-      <c r="D34" t="n">
-        <v>898.729242971763</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1552,12 +1344,6 @@
       <c r="B35" t="n">
         <v>365</v>
       </c>
-      <c r="C35" t="n">
-        <v>-177.4025284065671</v>
-      </c>
-      <c r="D35" t="n">
-        <v>876.4238327926166</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1566,12 +1352,6 @@
       <c r="B36" t="n">
         <v>369</v>
       </c>
-      <c r="C36" t="n">
-        <v>-137.8725666660278</v>
-      </c>
-      <c r="D36" t="n">
-        <v>905.0119463383094</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1580,12 +1360,6 @@
       <c r="B37" t="n">
         <v>373</v>
       </c>
-      <c r="C37" t="n">
-        <v>-148.6853230176696</v>
-      </c>
-      <c r="D37" t="n">
-        <v>918.231087655628</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1594,12 +1368,6 @@
       <c r="B38" t="n">
         <v>378</v>
       </c>
-      <c r="C38" t="n">
-        <v>-151.0888064892128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>913.9654649350545</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1608,12 +1376,6 @@
       <c r="B39" t="n">
         <v>382</v>
       </c>
-      <c r="C39" t="n">
-        <v>-154.7618778415726</v>
-      </c>
-      <c r="D39" t="n">
-        <v>937.4679860374006</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1622,12 +1384,6 @@
       <c r="B40" t="n">
         <v>386</v>
       </c>
-      <c r="C40" t="n">
-        <v>-112.1490089208133</v>
-      </c>
-      <c r="D40" t="n">
-        <v>980.5764695270449</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1636,12 +1392,6 @@
       <c r="B41" t="n">
         <v>391</v>
       </c>
-      <c r="C41" t="n">
-        <v>-102.2031569977965</v>
-      </c>
-      <c r="D41" t="n">
-        <v>888.3715760419113</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1650,12 +1400,6 @@
       <c r="B42" t="n">
         <v>395</v>
       </c>
-      <c r="C42" t="n">
-        <v>-135.3332787949707</v>
-      </c>
-      <c r="D42" t="n">
-        <v>924.6913492192172</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1664,12 +1408,6 @@
       <c r="B43" t="n">
         <v>399</v>
       </c>
-      <c r="C43" t="n">
-        <v>-135.7493431936953</v>
-      </c>
-      <c r="D43" t="n">
-        <v>954.6853816803887</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1678,12 +1416,6 @@
       <c r="B44" t="n">
         <v>430</v>
       </c>
-      <c r="C44" t="n">
-        <v>-87.76405667224924</v>
-      </c>
-      <c r="D44" t="n">
-        <v>937.5789685222209</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1692,12 +1424,6 @@
       <c r="B45" t="n">
         <v>434</v>
       </c>
-      <c r="C45" t="n">
-        <v>-80.75062175320909</v>
-      </c>
-      <c r="D45" t="n">
-        <v>927.9239801484389</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1706,12 +1432,6 @@
       <c r="B46" t="n">
         <v>438</v>
       </c>
-      <c r="C46" t="n">
-        <v>-56.93394194246566</v>
-      </c>
-      <c r="D46" t="n">
-        <v>950.1587631493961</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1720,12 +1440,6 @@
       <c r="B47" t="n">
         <v>447</v>
       </c>
-      <c r="C47" t="n">
-        <v>-86.43123512672977</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1010.082449828148</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1734,12 +1448,6 @@
       <c r="B48" t="n">
         <v>451</v>
       </c>
-      <c r="C48" t="n">
-        <v>-75.31943486428588</v>
-      </c>
-      <c r="D48" t="n">
-        <v>966.4635371368332</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1748,12 +1456,6 @@
       <c r="B49" t="n">
         <v>456</v>
       </c>
-      <c r="C49" t="n">
-        <v>-34.32698890110451</v>
-      </c>
-      <c r="D49" t="n">
-        <v>981.4689957172174</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1762,12 +1464,6 @@
       <c r="B50" t="n">
         <v>460</v>
       </c>
-      <c r="C50" t="n">
-        <v>-55.5704493853756</v>
-      </c>
-      <c r="D50" t="n">
-        <v>951.0253563390744</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1776,12 +1472,6 @@
       <c r="B51" t="n">
         <v>464</v>
       </c>
-      <c r="C51" t="n">
-        <v>-68.11992147884322</v>
-      </c>
-      <c r="D51" t="n">
-        <v>991.9917427706355</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1790,12 +1480,6 @@
       <c r="B52" t="n">
         <v>469</v>
       </c>
-      <c r="C52" t="n">
-        <v>-24.64248984397513</v>
-      </c>
-      <c r="D52" t="n">
-        <v>999.7647493371828</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1804,12 +1488,6 @@
       <c r="B53" t="n">
         <v>473</v>
       </c>
-      <c r="C53" t="n">
-        <v>-43.34717584680649</v>
-      </c>
-      <c r="D53" t="n">
-        <v>949.4572638042836</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1818,12 +1496,6 @@
       <c r="B54" t="n">
         <v>477</v>
       </c>
-      <c r="C54" t="n">
-        <v>-43.58668698953687</v>
-      </c>
-      <c r="D54" t="n">
-        <v>993.5152087693371</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1832,12 +1504,6 @@
       <c r="B55" t="n">
         <v>482</v>
       </c>
-      <c r="C55" t="n">
-        <v>-43.47019230756953</v>
-      </c>
-      <c r="D55" t="n">
-        <v>979.4885386447816</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1846,12 +1512,6 @@
       <c r="B56" t="n">
         <v>486</v>
       </c>
-      <c r="C56" t="n">
-        <v>-26.14006226312189</v>
-      </c>
-      <c r="D56" t="n">
-        <v>997.3961479447844</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1860,12 +1520,6 @@
       <c r="B57" t="n">
         <v>490</v>
       </c>
-      <c r="C57" t="n">
-        <v>-23.74471421805152</v>
-      </c>
-      <c r="D57" t="n">
-        <v>984.908406748633</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1874,12 +1528,6 @@
       <c r="B58" t="n">
         <v>495</v>
       </c>
-      <c r="C58" t="n">
-        <v>-4.169782577778082</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1008.623926228689</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1888,12 +1536,6 @@
       <c r="B59" t="n">
         <v>499</v>
       </c>
-      <c r="C59" t="n">
-        <v>-42.99950280055904</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1004.827648872626</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1902,12 +1544,6 @@
       <c r="B60" t="n">
         <v>503</v>
       </c>
-      <c r="C60" t="n">
-        <v>-20.06370552595211</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1023.930364516322</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1915,12 +1551,6 @@
       </c>
       <c r="B61" t="n">
         <v>508</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-39.30104356882455</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1015.72373861081</v>
       </c>
     </row>
   </sheetData>
